--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>是否数据增广</t>
   </si>
@@ -55,7 +55,10 @@
     <t>val_acc</t>
   </si>
   <si>
-    <t>所用时间</t>
+    <t>单epoch所用时间</t>
+  </si>
+  <si>
+    <t>所用gpu</t>
   </si>
   <si>
     <t>备注</t>
@@ -85,7 +88,10 @@
     <t>adam</t>
   </si>
   <si>
-    <t>10s * 15</t>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>cpu</t>
   </si>
   <si>
     <t>360*10</t>
@@ -94,13 +100,79 @@
     <t>40*9</t>
   </si>
   <si>
-    <t>10s * 120</t>
-  </si>
-  <si>
     <t>(150,150)</t>
   </si>
   <si>
-    <t>85s * 7</t>
+    <t>85s</t>
+  </si>
+  <si>
+    <t>dnn</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0.0925</t>
+  </si>
+  <si>
+    <t>0.9697</t>
+  </si>
+  <si>
+    <t>0.3564</t>
+  </si>
+  <si>
+    <t>0.9297</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>1080ti</t>
+  </si>
+  <si>
+    <t>(100,100)</t>
+  </si>
+  <si>
+    <t>0.0382</t>
+  </si>
+  <si>
+    <t>0.9863</t>
+  </si>
+  <si>
+    <t>0.3630</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>46s</t>
+  </si>
+  <si>
+    <t>(224,224)</t>
+  </si>
+  <si>
+    <t>resnet34</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0.0833</t>
+  </si>
+  <si>
+    <t>0.9688</t>
+  </si>
+  <si>
+    <t>0.3427</t>
+  </si>
+  <si>
+    <t>0.9222</t>
+  </si>
+  <si>
+    <t>13s</t>
   </si>
 </sst>
 </file>
@@ -123,14 +195,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,14 +224,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +239,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,9 +291,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,8 +322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,14 +332,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +347,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,37 +479,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,48 +521,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,78 +528,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,13 +550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +576,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,9 +615,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,40 +638,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1088,12 +1160,12 @@
     <col min="10" max="10" width="13.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.1083333333333" style="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.4416666666667" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,37 +1214,40 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2">
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2">
         <v>0.0873</v>
@@ -1187,39 +1262,42 @@
         <v>0.7</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2">
         <v>120</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2">
         <v>0.0906</v>
@@ -1234,40 +1312,42 @@
         <v>0.87</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2">
         <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2">
         <v>0.1636</v>
@@ -1282,81 +1362,199 @@
         <v>0.6575</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2"/>
